--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -511,16 +511,16 @@
         <v>45559</v>
       </c>
       <c r="B2" t="n">
-        <v>116.4865910539494</v>
+        <v>116.4865984087687</v>
       </c>
       <c r="C2" t="n">
-        <v>121.7650837162479</v>
+        <v>121.7650914043446</v>
       </c>
       <c r="D2" t="n">
-        <v>115.3469184953369</v>
+        <v>115.3469257781986</v>
       </c>
       <c r="E2" t="n">
-        <v>120.8353500366211</v>
+        <v>120.8353576660156</v>
       </c>
       <c r="F2" t="n">
         <v>354966800</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02184165543270233</v>
+        <v>0.02184159091488813</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02184165543270233</v>
+        <v>0.02184159091488813</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -601,7 +601,7 @@
         <v>0.004291135315719785</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02622651624740313</v>
+        <v>0.02622645145273439</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -636,7 +636,7 @@
         <v>-0.02128340278499841</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004384923953463904</v>
+        <v>0.004384860537846258</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -671,7 +671,7 @@
         <v>0.0003294655755305964</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00471583421048849</v>
+        <v>0.004715770773977557</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -682,16 +682,16 @@
         <v>45566</v>
       </c>
       <c r="B7" t="n">
-        <v>121.735082533405</v>
+        <v>121.7350904738439</v>
       </c>
       <c r="C7" t="n">
-        <v>122.4048962264927</v>
+        <v>122.4049042106216</v>
       </c>
       <c r="D7" t="n">
-        <v>115.7568014008595</v>
+        <v>115.7568089513518</v>
       </c>
       <c r="E7" t="n">
-        <v>116.9664535522461</v>
+        <v>116.9664611816406</v>
       </c>
       <c r="F7" t="n">
         <v>302094500</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03656133629605962</v>
+        <v>-0.03656127345365101</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.03201791928605724</v>
+        <v>-0.03201791726448555</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -717,16 +717,16 @@
         <v>45567</v>
       </c>
       <c r="B8" t="n">
-        <v>116.4066279572152</v>
+        <v>116.4066204825267</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3457800965344</v>
+        <v>119.3457724331174</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1069975173639</v>
+        <v>115.1069901261271</v>
       </c>
       <c r="E8" t="n">
-        <v>118.8159332275391</v>
+        <v>118.8159255981445</v>
       </c>
       <c r="F8" t="n">
         <v>221845900</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01581205225194626</v>
+        <v>0.01581192076617421</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01671213604686073</v>
+        <v>-0.01671226126919534</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03365582252144383</v>
+        <v>0.0336558888944325</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0163812257898357</v>
+        <v>0.01638116161678638</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -811,7 +811,7 @@
         <v>0.01684980083029886</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03350704701204954</v>
+        <v>0.03350698175769695</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -822,16 +822,16 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>124.9541744751864</v>
+        <v>124.9541670088695</v>
       </c>
       <c r="C11" t="n">
-        <v>130.6025566538886</v>
+        <v>130.6025488500671</v>
       </c>
       <c r="D11" t="n">
-        <v>124.9141850243231</v>
+        <v>124.9141775603957</v>
       </c>
       <c r="E11" t="n">
-        <v>127.6833953857422</v>
+        <v>127.6833877563477</v>
       </c>
       <c r="F11" t="n">
         <v>346250200</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02241444404666915</v>
+        <v>0.02241438295491061</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05667253288913932</v>
+        <v>0.05667240303338783</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04047905204903657</v>
+        <v>0.04047911422020345</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09944563534674611</v>
+        <v>0.09944556592911313</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -892,16 +892,16 @@
         <v>45574</v>
       </c>
       <c r="B13" t="n">
-        <v>134.0715571884807</v>
+        <v>134.0715417617464</v>
       </c>
       <c r="C13" t="n">
-        <v>134.4814433206245</v>
+        <v>134.4814278467273</v>
       </c>
       <c r="D13" t="n">
-        <v>131.3423440303025</v>
+        <v>131.3423289176008</v>
       </c>
       <c r="E13" t="n">
-        <v>132.6119689941406</v>
+        <v>132.6119537353516</v>
       </c>
       <c r="F13" t="n">
         <v>246191600</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.001805989996993107</v>
+        <v>-0.001806104852627555</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09746004752707216</v>
+        <v>0.09745985195728868</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -927,16 +927,16 @@
         <v>45575</v>
       </c>
       <c r="B14" t="n">
-        <v>131.8721995186738</v>
+        <v>131.8721845881274</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9613102932142</v>
+        <v>134.9612950129192</v>
       </c>
       <c r="D14" t="n">
-        <v>130.9624566548967</v>
+        <v>130.9624418273512</v>
       </c>
       <c r="E14" t="n">
-        <v>134.7713623046875</v>
+        <v>134.7713470458984</v>
       </c>
       <c r="F14" t="n">
         <v>242311300</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01628354760830297</v>
+        <v>0.01628354948194399</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1153305904591897</v>
+        <v>0.1153303937610821</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.415898055063153e-05</v>
+        <v>-7.404576911651528e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1152478786796243</v>
+        <v>0.115247808264257</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
         <v>0.02425823913595093</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1423018284164965</v>
+        <v>0.1423017562929765</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
         <v>-0.04686035085485096</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08877316395476176</v>
+        <v>0.08877309521097509</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
         <v>0.03130688166850026</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1228592565625322</v>
+        <v>0.1228591856665919</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
         <v>0.008915433610181545</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1328700337179933</v>
+        <v>0.1328699621899849</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
         <v>0.007814165037020482</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1417224671269608</v>
+        <v>0.1417223950400206</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1196,13 +1196,13 @@
         <v>0.04137689234214936</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1889633947338862</v>
+        <v>0.1889633196642124</v>
       </c>
       <c r="K21" t="n">
         <v>269868305</v>
       </c>
       <c r="L21" t="n">
-        <v>129.0519966125488</v>
+        <v>129.0519950866699</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1235,13 +1235,13 @@
         <v>-0.0008350079693236756</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1879706008240494</v>
+        <v>0.1879705258170592</v>
       </c>
       <c r="K22" t="n">
         <v>263435545</v>
       </c>
       <c r="L22" t="n">
-        <v>130.1876712799072</v>
+        <v>130.1876693725586</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1274,13 +1274,13 @@
         <v>-0.02806608729925975</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1546289142323676</v>
+        <v>0.1546288413305301</v>
       </c>
       <c r="K23" t="n">
         <v>263497400</v>
       </c>
       <c r="L23" t="n">
-        <v>130.9899410247803</v>
+        <v>130.9899391174316</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1313,13 +1313,13 @@
         <v>0.006090610878756175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1616613096583177</v>
+        <v>0.1616612363124634</v>
       </c>
       <c r="K24" t="n">
         <v>256986000</v>
       </c>
       <c r="L24" t="n">
-        <v>131.8082065582275</v>
+        <v>131.8082046508789</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1352,13 +1352,13 @@
         <v>0.008047810739806316</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1710101400222035</v>
+        <v>0.1710100660860756</v>
       </c>
       <c r="K25" t="n">
         <v>253691645</v>
       </c>
       <c r="L25" t="n">
-        <v>132.8149173736572</v>
+        <v>132.8149154663086</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1367,16 +1367,16 @@
         <v>45593</v>
       </c>
       <c r="B26" t="n">
-        <v>142.9590058506139</v>
+        <v>142.9590213787008</v>
       </c>
       <c r="C26" t="n">
-        <v>143.0989651063051</v>
+        <v>143.0989806495942</v>
       </c>
       <c r="D26" t="n">
-        <v>140.0098545849982</v>
+        <v>140.0098697927508</v>
       </c>
       <c r="E26" t="n">
-        <v>140.4797210693359</v>
+        <v>140.479736328125</v>
       </c>
       <c r="F26" t="n">
         <v>173586700</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.007206383570217523</v>
+        <v>-0.007206275733810608</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1625713917885894</v>
+        <v>0.1625714446627915</v>
       </c>
       <c r="K26" t="n">
         <v>251043295</v>
       </c>
       <c r="L26" t="n">
-        <v>133.768643951416</v>
+        <v>133.7686428070068</v>
       </c>
       <c r="M26" t="inlineStr"/>
     </row>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005194928484603123</v>
+        <v>0.005194819301187925</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1686108670271766</v>
+        <v>0.1686107932425358</v>
       </c>
       <c r="K27" t="n">
         <v>243818250</v>
       </c>
       <c r="L27" t="n">
-        <v>134.9807964324951</v>
+        <v>134.9807949066162</v>
       </c>
       <c r="M27" t="inlineStr"/>
     </row>
@@ -1469,13 +1469,13 @@
         <v>-0.01352213769460398</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1528087499718247</v>
+        <v>0.1528086771849098</v>
       </c>
       <c r="K28" t="n">
         <v>241696860</v>
       </c>
       <c r="L28" t="n">
-        <v>136.0050022125244</v>
+        <v>136.0050010681152</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1508,13 +1508,13 @@
         <v>-0.04722259465484702</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09837012965734426</v>
+        <v>0.0983700603076163</v>
       </c>
       <c r="K29" t="n">
         <v>241342940</v>
       </c>
       <c r="L29" t="n">
-        <v>136.5003601074219</v>
+        <v>136.5003589630127</v>
       </c>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1547,13 +1547,13 @@
         <v>0.01988557225083976</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1202118482288097</v>
+        <v>0.1202117775000227</v>
       </c>
       <c r="K30" t="n">
         <v>239515425</v>
       </c>
       <c r="L30" t="n">
-        <v>137.024210357666</v>
+        <v>137.0242092132568</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1586,13 +1586,13 @@
         <v>0.004800569403939692</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1255895029533476</v>
+        <v>0.1255894318850221</v>
       </c>
       <c r="K31" t="n">
         <v>231579325</v>
       </c>
       <c r="L31" t="n">
-        <v>137.4405906677246</v>
+        <v>137.4405899047852</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1625,13 +1625,13 @@
         <v>0.02837187193481605</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1575245841823132</v>
+        <v>0.1575245110976464</v>
       </c>
       <c r="K32" t="n">
         <v>225320070</v>
       </c>
       <c r="L32" t="n">
-        <v>137.7914901733398</v>
+        <v>137.7914894104004</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1664,7 +1664,7 @@
         <v>0.0407404647765186</v>
       </c>
       <c r="J33" t="n">
-        <v>0.204682673732147</v>
+        <v>0.2046825976699771</v>
       </c>
       <c r="K33" t="n">
         <v>225112685</v>
@@ -1703,13 +1703,13 @@
         <v>0.02245742933330641</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2317367497465452</v>
+        <v>0.2317366719762146</v>
       </c>
       <c r="K34" t="n">
         <v>223363285</v>
       </c>
       <c r="L34" t="n">
-        <v>139.142603302002</v>
+        <v>139.1426040649414</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1718,16 +1718,16 @@
         <v>45604</v>
       </c>
       <c r="B35" t="n">
-        <v>148.7273495355645</v>
+        <v>148.727364912182</v>
       </c>
       <c r="C35" t="n">
-        <v>149.727062819589</v>
+        <v>149.7270782995649</v>
       </c>
       <c r="D35" t="n">
-        <v>146.2180594298379</v>
+        <v>146.218074547025</v>
       </c>
       <c r="E35" t="n">
-        <v>147.5876770019531</v>
+        <v>147.5876922607422</v>
       </c>
       <c r="F35" t="n">
         <v>175665800</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.008396174613530705</v>
+        <v>-0.008396072093632689</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2213948729177704</v>
+        <v>0.2213949220779312</v>
       </c>
       <c r="K35" t="n">
         <v>223636100</v>
       </c>
       <c r="L35" t="n">
-        <v>139.783918762207</v>
+        <v>139.7839202880859</v>
       </c>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1757,16 +1757,16 @@
         <v>45607</v>
       </c>
       <c r="B36" t="n">
-        <v>148.6373710400852</v>
+        <v>148.6373554220435</v>
       </c>
       <c r="C36" t="n">
-        <v>148.8073357305937</v>
+        <v>148.8073200946931</v>
       </c>
       <c r="D36" t="n">
-        <v>143.5288505522892</v>
+        <v>143.5288354710243</v>
       </c>
       <c r="E36" t="n">
-        <v>145.2183532714844</v>
+        <v>145.2183380126953</v>
       </c>
       <c r="F36" t="n">
         <v>182325600</v>
@@ -1778,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01605366910434802</v>
+        <v>-0.01605387422049365</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2017870037822014</v>
+        <v>0.2017868016253426</v>
       </c>
       <c r="K36" t="n">
         <v>221134995</v>
       </c>
       <c r="L36" t="n">
-        <v>140.1433143615723</v>
+        <v>140.1433151245117</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1796,16 +1796,16 @@
         <v>45608</v>
       </c>
       <c r="B37" t="n">
-        <v>146.7379055667472</v>
+        <v>146.7379206701603</v>
       </c>
       <c r="C37" t="n">
-        <v>149.6070776336861</v>
+        <v>149.6070930324169</v>
       </c>
       <c r="D37" t="n">
-        <v>145.9681221142465</v>
+        <v>145.9681371384276</v>
       </c>
       <c r="E37" t="n">
-        <v>148.2474670410156</v>
+        <v>148.2474822998047</v>
       </c>
       <c r="F37" t="n">
         <v>198634700</v>
@@ -1817,16 +1817,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02085902849943722</v>
+        <v>0.02085924084081281</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2268551131443475</v>
+        <v>0.2268551619597556</v>
       </c>
       <c r="K37" t="n">
         <v>212175180</v>
       </c>
       <c r="L37" t="n">
-        <v>140.9775733947754</v>
+        <v>140.9775749206543</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0136217768924155</v>
+        <v>-0.01362187841816831</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2101431665137761</v>
+        <v>0.2101430901068377</v>
       </c>
       <c r="K38" t="n">
         <v>208526360</v>
       </c>
       <c r="L38" t="n">
-        <v>141.5049224853516</v>
+        <v>141.5049240112305</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1874,16 +1874,16 @@
         <v>45610</v>
       </c>
       <c r="B39" t="n">
-        <v>147.5976786564283</v>
+        <v>147.5976633061443</v>
       </c>
       <c r="C39" t="n">
-        <v>148.9572894251161</v>
+        <v>148.9572739334313</v>
       </c>
       <c r="D39" t="n">
-        <v>145.508281412129</v>
+        <v>145.508266279144</v>
       </c>
       <c r="E39" t="n">
-        <v>146.7179260253906</v>
+        <v>146.7179107666016</v>
       </c>
       <c r="F39" t="n">
         <v>194463300</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.003349923819833567</v>
+        <v>0.003349819470588322</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2141970539326894</v>
+        <v>0.2141968509922756</v>
       </c>
       <c r="K39" t="n">
         <v>202927730</v>
       </c>
       <c r="L39" t="n">
-        <v>141.9962814331055</v>
+        <v>141.9962821960449</v>
       </c>
       <c r="M39" t="inlineStr"/>
     </row>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.03257025829443183</v>
+        <v>-0.03257015768090554</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1746503422657635</v>
+        <v>0.1746502680997981</v>
       </c>
       <c r="K40" t="n">
         <v>206629865</v>
       </c>
       <c r="L40" t="n">
-        <v>142.1952239990234</v>
+        <v>142.1952247619629</v>
       </c>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -1976,13 +1976,13 @@
         <v>-0.01288919433854574</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1595100457244607</v>
+        <v>0.1595099725144349</v>
       </c>
       <c r="K41" t="n">
         <v>204462405</v>
       </c>
       <c r="L41" t="n">
-        <v>142.0172737121582</v>
+        <v>142.0172744750977</v>
       </c>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -2015,13 +2015,13 @@
         <v>0.04894766372809412</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2162653535319286</v>
+        <v>0.2162652767384432</v>
       </c>
       <c r="K42" t="n">
         <v>204538570</v>
       </c>
       <c r="L42" t="n">
-        <v>142.188224029541</v>
+        <v>142.1882247924805</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2054,13 +2054,13 @@
         <v>-0.007618500812682338</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2069992349476082</v>
+        <v>0.206999158739174</v>
       </c>
       <c r="K43" t="n">
         <v>205735655</v>
       </c>
       <c r="L43" t="n">
-        <v>142.5046333312988</v>
+        <v>142.5046340942383</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2093,13 +2093,13 @@
         <v>0.005346554086048227</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2134525216390744</v>
+        <v>0.2134524450231876</v>
       </c>
       <c r="K44" t="n">
         <v>217165240</v>
       </c>
       <c r="L44" t="n">
-        <v>142.8175437927246</v>
+        <v>142.8175445556641</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2108,16 +2108,16 @@
         <v>45618</v>
       </c>
       <c r="B45" t="n">
-        <v>145.8881721597263</v>
+        <v>145.8881564731112</v>
       </c>
       <c r="C45" t="n">
-        <v>147.1178306503594</v>
+        <v>147.1178148315253</v>
       </c>
       <c r="D45" t="n">
-        <v>141.0595697616615</v>
+        <v>141.0595545942415</v>
       </c>
       <c r="E45" t="n">
-        <v>141.9093170166016</v>
+        <v>141.9093017578125</v>
       </c>
       <c r="F45" t="n">
         <v>236406200</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.03218106002345622</v>
+        <v>-0.03218116408811778</v>
       </c>
       <c r="J45" t="n">
-        <v>0.174402333204593</v>
+        <v>0.1744021327767686</v>
       </c>
       <c r="K45" t="n">
         <v>218729445</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.04177536988843966</v>
+        <v>-0.04177526685539446</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1253412413371244</v>
+        <v>0.1253411702844747</v>
       </c>
       <c r="K46" t="n">
         <v>227297205</v>
       </c>
       <c r="L46" t="n">
-        <v>142.613102722168</v>
+        <v>142.6131019592285</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>0.006616731288063171</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1327873219384277</v>
+        <v>0.1327872504156415</v>
       </c>
       <c r="K47" t="n">
         <v>228931910</v>
       </c>
       <c r="L47" t="n">
-        <v>142.3966651916504</v>
+        <v>142.3966644287109</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2249,13 +2249,13 @@
         <v>-0.01153967447278148</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1197153249963643</v>
+        <v>0.1197152542989279</v>
       </c>
       <c r="K48" t="n">
         <v>231279550</v>
       </c>
       <c r="L48" t="n">
-        <v>142.1967224121094</v>
+        <v>142.1967216491699</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2288,13 +2288,13 @@
         <v>0.02150150799038109</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1437908930037257</v>
+        <v>0.143790820786188</v>
       </c>
       <c r="K49" t="n">
         <v>224870730</v>
       </c>
       <c r="L49" t="n">
-        <v>142.4711441040039</v>
+        <v>142.4711433410644</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2303,16 +2303,16 @@
         <v>45628</v>
       </c>
       <c r="B50" t="n">
-        <v>138.7902106215645</v>
+        <v>138.7901953407621</v>
       </c>
       <c r="C50" t="n">
-        <v>140.4097414186178</v>
+        <v>140.409725959505</v>
       </c>
       <c r="D50" t="n">
-        <v>137.7805055975671</v>
+        <v>137.7804904279332</v>
       </c>
       <c r="E50" t="n">
-        <v>138.5902709960938</v>
+        <v>138.5902557373047</v>
       </c>
       <c r="F50" t="n">
         <v>171682800</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.002748694350862779</v>
+        <v>0.002748583948229966</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1469348245698934</v>
+        <v>0.1469346258763338</v>
       </c>
       <c r="K50" t="n">
         <v>223098480</v>
       </c>
       <c r="L50" t="n">
-        <v>142.6325981140137</v>
+        <v>142.6325965881348</v>
       </c>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.011757909474017</v>
+        <v>0.0117580208685768</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1604203804097837</v>
+        <v>0.1604203071422809</v>
       </c>
       <c r="K51" t="n">
         <v>221942770</v>
       </c>
       <c r="L51" t="n">
-        <v>142.8430381774902</v>
+        <v>142.8430366516113</v>
       </c>
       <c r="M51" t="n">
-        <v>136.5584420776367</v>
+        <v>136.5584411621094</v>
       </c>
     </row>
     <row r="52">
@@ -2407,16 +2407,16 @@
         <v>0.03479252555513423</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2007943361498896</v>
+        <v>0.2007942603332256</v>
       </c>
       <c r="K52" t="n">
         <v>225477115</v>
       </c>
       <c r="L52" t="n">
-        <v>143.1044639587402</v>
+        <v>143.1044624328613</v>
       </c>
       <c r="M52" t="n">
-        <v>137.0437031555176</v>
+        <v>137.0437020874024</v>
       </c>
     </row>
     <row r="53">
@@ -2448,16 +2448,16 @@
         <v>-0.0004823765357414578</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2002151011378797</v>
+        <v>0.2002150253577879</v>
       </c>
       <c r="K53" t="n">
         <v>222005980</v>
       </c>
       <c r="L53" t="n">
-        <v>143.0774719238281</v>
+        <v>143.0774703979492</v>
       </c>
       <c r="M53" t="n">
-        <v>137.4747795104981</v>
+        <v>137.4747784423828</v>
       </c>
     </row>
     <row r="54">
@@ -2465,16 +2465,16 @@
         <v>45632</v>
       </c>
       <c r="B54" t="n">
-        <v>144.5685300618277</v>
+        <v>144.5685145716497</v>
       </c>
       <c r="C54" t="n">
-        <v>145.6682814642568</v>
+        <v>145.668265856243</v>
       </c>
       <c r="D54" t="n">
-        <v>141.2792376748709</v>
+        <v>141.2792225371328</v>
       </c>
       <c r="E54" t="n">
-        <v>142.4089965820312</v>
+        <v>142.4089813232422</v>
       </c>
       <c r="F54" t="n">
         <v>188505600</v>
@@ -2486,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.01806139396766737</v>
+        <v>-0.01806149918007971</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1785375433502847</v>
+        <v>0.1785373426613688</v>
       </c>
       <c r="K54" t="n">
         <v>221065095</v>
       </c>
       <c r="L54" t="n">
-        <v>142.7560546875</v>
+        <v>142.7560523986816</v>
       </c>
       <c r="M54" t="n">
-        <v>137.8428706359863</v>
+        <v>137.8428692626953</v>
       </c>
     </row>
     <row r="55">
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.02548463952745317</v>
+        <v>-0.02548453511041293</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1485029388884325</v>
+        <v>0.1485028663733823</v>
       </c>
       <c r="K55" t="n">
         <v>221747235</v>
       </c>
       <c r="L55" t="n">
-        <v>142.3156585693359</v>
+        <v>142.3156555175781</v>
       </c>
       <c r="M55" t="n">
-        <v>138.1911616516113</v>
+        <v>138.1911602783203</v>
       </c>
     </row>
     <row r="56">
@@ -2571,16 +2571,16 @@
         <v>-0.02694316811195518</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1175586311288868</v>
+        <v>0.1175585605676219</v>
       </c>
       <c r="K56" t="n">
         <v>223132000</v>
       </c>
       <c r="L56" t="n">
-        <v>141.806770324707</v>
+        <v>141.8067680358887</v>
       </c>
       <c r="M56" t="n">
-        <v>138.4638696289063</v>
+        <v>138.4638682556152</v>
       </c>
     </row>
     <row r="57">
@@ -2612,16 +2612,16 @@
         <v>0.03139100250620896</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1526399169194892</v>
+        <v>0.1526398441432355</v>
       </c>
       <c r="K57" t="n">
         <v>222445525</v>
       </c>
       <c r="L57" t="n">
-        <v>141.3583793640137</v>
+        <v>141.3583763122559</v>
       </c>
       <c r="M57" t="n">
-        <v>138.9101335144043</v>
+        <v>138.9101319885254</v>
       </c>
     </row>
     <row r="58">
@@ -2653,16 +2653,16 @@
         <v>-0.0141410374490939</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1363403926890103</v>
+        <v>0.1363403209418883</v>
       </c>
       <c r="K58" t="n">
         <v>220810930</v>
       </c>
       <c r="L58" t="n">
-        <v>140.9124801635742</v>
+        <v>140.9124771118164</v>
       </c>
       <c r="M58" t="n">
-        <v>139.2800166320801</v>
+        <v>139.2800152587891</v>
       </c>
     </row>
     <row r="59">
@@ -2694,16 +2694,16 @@
         <v>-0.0224988926244678</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1107739922090547</v>
+        <v>0.1107739220761634</v>
       </c>
       <c r="K59" t="n">
         <v>222663510</v>
       </c>
       <c r="L59" t="n">
-        <v>140.2876220703125</v>
+        <v>140.2876197814941</v>
       </c>
       <c r="M59" t="n">
-        <v>139.5081362915039</v>
+        <v>139.5081349182129</v>
       </c>
     </row>
     <row r="60">
@@ -2735,16 +2735,16 @@
         <v>-0.01675990292273155</v>
       </c>
       <c r="J60" t="n">
-        <v>0.092157527930536</v>
+        <v>0.09215745897306515</v>
       </c>
       <c r="K60" t="n">
         <v>222054420</v>
       </c>
       <c r="L60" t="n">
-        <v>139.7892196655274</v>
+        <v>139.789217376709</v>
       </c>
       <c r="M60" t="n">
-        <v>139.6498773193359</v>
+        <v>139.6498759460449</v>
       </c>
     </row>
     <row r="61">
@@ -2776,16 +2776,16 @@
         <v>-0.01219685769245848</v>
       </c>
       <c r="J61" t="n">
-        <v>0.07883663798461993</v>
+        <v>0.07883656986821364</v>
       </c>
       <c r="K61" t="n">
         <v>223964670</v>
       </c>
       <c r="L61" t="n">
-        <v>139.3018096923828</v>
+        <v>139.3018074035645</v>
       </c>
       <c r="M61" t="n">
-        <v>139.7034414672852</v>
+        <v>139.703440246582</v>
       </c>
     </row>
     <row r="62">
@@ -2817,16 +2817,16 @@
         <v>-0.01135054541657876</v>
       </c>
       <c r="J62" t="n">
-        <v>0.06659125372810637</v>
+        <v>0.0665911863848585</v>
       </c>
       <c r="K62" t="n">
         <v>226445150</v>
       </c>
       <c r="L62" t="n">
-        <v>138.3975135803223</v>
+        <v>138.3975112915039</v>
       </c>
       <c r="M62" t="n">
-        <v>139.6240420532227</v>
+        <v>139.6240408325195</v>
       </c>
     </row>
     <row r="63">
@@ -2858,16 +2858,16 @@
         <v>0.01373033690305681</v>
       </c>
       <c r="J63" t="n">
-        <v>0.081235910979647</v>
+        <v>0.08123584271175366</v>
       </c>
       <c r="K63" t="n">
         <v>221437525</v>
       </c>
       <c r="L63" t="n">
-        <v>137.6376808166504</v>
+        <v>137.637678527832</v>
       </c>
       <c r="M63" t="n">
-        <v>139.5848330688476</v>
+        <v>139.5848321533203</v>
       </c>
     </row>
     <row r="64">
@@ -2899,16 +2899,16 @@
         <v>0.03076224852488418</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1144971587872325</v>
+        <v>0.1144970884192653</v>
       </c>
       <c r="K64" t="n">
         <v>216716625</v>
       </c>
       <c r="L64" t="n">
-        <v>137.0398155212402</v>
+        <v>137.0398132324219</v>
       </c>
       <c r="M64" t="n">
-        <v>139.5828189086914</v>
+        <v>139.5828182983398</v>
       </c>
     </row>
     <row r="65">
@@ -2940,16 +2940,16 @@
         <v>0.03689681224631136</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1556185512040524</v>
+        <v>0.1556184782397316</v>
       </c>
       <c r="K65" t="n">
         <v>213698990</v>
       </c>
       <c r="L65" t="n">
-        <v>136.9263282775879</v>
+        <v>136.926326751709</v>
       </c>
       <c r="M65" t="n">
-        <v>139.6803829956055</v>
+        <v>139.6803823852539</v>
       </c>
     </row>
     <row r="66">
@@ -2981,16 +2981,16 @@
         <v>0.003937968527066626</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1601693406879883</v>
+        <v>0.1601692674363364</v>
       </c>
       <c r="K66" t="n">
         <v>201709745</v>
       </c>
       <c r="L66" t="n">
-        <v>137.1367515563965</v>
+        <v>137.1367500305176</v>
       </c>
       <c r="M66" t="n">
-        <v>139.7235635375977</v>
+        <v>139.7235629272461</v>
       </c>
     </row>
     <row r="67">
@@ -3022,16 +3022,16 @@
         <v>-0.002068254577953343</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1577698151379092</v>
+        <v>0.1577697420377604</v>
       </c>
       <c r="K67" t="n">
         <v>198005640</v>
       </c>
       <c r="L67" t="n">
-        <v>137.2876899719238</v>
+        <v>137.2876884460449</v>
       </c>
       <c r="M67" t="n">
-        <v>139.8903082275391</v>
+        <v>139.8903076171875</v>
       </c>
     </row>
     <row r="68">
@@ -3039,16 +3039,16 @@
         <v>45653</v>
       </c>
       <c r="B68" t="n">
-        <v>138.5198213856297</v>
+        <v>138.5198368159294</v>
       </c>
       <c r="C68" t="n">
-        <v>138.9897202214926</v>
+        <v>138.9897357041363</v>
       </c>
       <c r="D68" t="n">
-        <v>134.6806615506972</v>
+        <v>134.6806765533369</v>
       </c>
       <c r="E68" t="n">
-        <v>136.9801483154297</v>
+        <v>136.9801635742188</v>
       </c>
       <c r="F68" t="n">
         <v>170582600</v>
@@ -3060,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.02086763800444025</v>
+        <v>-0.02086752893480959</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1336098937431436</v>
+        <v>0.1336099484459403</v>
       </c>
       <c r="K68" t="n">
         <v>195216225</v>
       </c>
       <c r="L68" t="n">
-        <v>137.3716377258301</v>
+        <v>137.3716369628906</v>
       </c>
       <c r="M68" t="n">
-        <v>139.9162893676758</v>
+        <v>139.9162890625</v>
       </c>
     </row>
     <row r="69">
@@ -3101,19 +3101,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.003503457841931956</v>
+        <v>0.00350334605751601</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1375814482150697</v>
+        <v>0.1375813763895892</v>
       </c>
       <c r="K69" t="n">
         <v>196509800</v>
       </c>
       <c r="L69" t="n">
-        <v>137.3341217041016</v>
+        <v>137.3341209411621</v>
       </c>
       <c r="M69" t="n">
-        <v>139.9276754760742</v>
+        <v>139.9276751708984</v>
       </c>
     </row>
     <row r="70">
@@ -3145,7 +3145,7 @@
         <v>-0.02327436215821754</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1111049656048426</v>
+        <v>0.1111048954510543</v>
       </c>
       <c r="K70" t="n">
         <v>195708620</v>
@@ -3154,7 +3154,7 @@
         <v>137.1176460266113</v>
       </c>
       <c r="M70" t="n">
-        <v>139.8536819458008</v>
+        <v>139.853681640625</v>
       </c>
     </row>
     <row r="71">
@@ -3186,7 +3186,7 @@
         <v>0.02993517494717812</v>
       </c>
       <c r="J71" t="n">
-        <v>0.144366087134902</v>
+        <v>0.1443660148810477</v>
       </c>
       <c r="K71" t="n">
         <v>197400280</v>
@@ -3195,7 +3195,7 @@
         <v>137.0206497192383</v>
       </c>
       <c r="M71" t="n">
-        <v>139.7459033203125</v>
+        <v>139.7459030151367</v>
       </c>
     </row>
     <row r="72">
@@ -3227,7 +3227,7 @@
         <v>0.04453765099626916</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1953334645356823</v>
+        <v>0.1953333890638111</v>
       </c>
       <c r="K72" t="n">
         <v>197305190</v>
@@ -3236,7 +3236,7 @@
         <v>136.9876564025879</v>
       </c>
       <c r="M72" t="n">
-        <v>139.7636972045898</v>
+        <v>139.7636968994141</v>
       </c>
     </row>
     <row r="73">
@@ -3268,7 +3268,7 @@
         <v>0.03433230606964521</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2363720188954108</v>
+        <v>0.2363719408324163</v>
       </c>
       <c r="K73" t="n">
         <v>201943000</v>
@@ -3277,7 +3277,7 @@
         <v>137.2061080932617</v>
       </c>
       <c r="M73" t="n">
-        <v>139.9612463378906</v>
+        <v>139.9612460327149</v>
       </c>
     </row>
     <row r="74">
@@ -3309,16 +3309,16 @@
         <v>-0.06216959790564947</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1595072676188871</v>
+        <v>0.1595071944090376</v>
       </c>
       <c r="K74" t="n">
         <v>210106830</v>
       </c>
       <c r="L74" t="n">
-        <v>137.0911315917969</v>
+        <v>137.0911323547363</v>
       </c>
       <c r="M74" t="n">
-        <v>139.9560406494141</v>
+        <v>139.9560403442383</v>
       </c>
     </row>
     <row r="75">
@@ -3350,16 +3350,16 @@
         <v>-0.0002140006756540247</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1592591322801908</v>
+        <v>0.1592590590860083</v>
       </c>
       <c r="K75" t="n">
         <v>212008895</v>
       </c>
       <c r="L75" t="n">
-        <v>137.1561180114746</v>
+        <v>137.1561187744141</v>
       </c>
       <c r="M75" t="n">
-        <v>139.9276419067383</v>
+        <v>139.9276416015625</v>
       </c>
     </row>
     <row r="76">
@@ -3391,16 +3391,16 @@
         <v>-0.02997631110005838</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1245088198853761</v>
+        <v>0.1245087488852852</v>
       </c>
       <c r="K76" t="n">
         <v>211887975</v>
       </c>
       <c r="L76" t="n">
-        <v>137.1981094360352</v>
+        <v>137.1981101989746</v>
       </c>
       <c r="M76" t="n">
-        <v>139.8356558227539</v>
+        <v>139.8356552124023</v>
       </c>
     </row>
     <row r="77">
@@ -3432,16 +3432,16 @@
         <v>-0.0197190158987155</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1023346125878106</v>
+        <v>0.1023345429877716</v>
       </c>
       <c r="K77" t="n">
         <v>212883160</v>
       </c>
       <c r="L77" t="n">
-        <v>136.8941764831543</v>
+        <v>136.8941772460938</v>
       </c>
       <c r="M77" t="n">
-        <v>139.675485534668</v>
+        <v>139.6754849243164</v>
       </c>
     </row>
     <row r="78">
@@ -3473,16 +3473,16 @@
         <v>-0.01103367218590845</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09017181383333628</v>
+        <v>0.09017174500124137</v>
       </c>
       <c r="K78" t="n">
         <v>214702115</v>
       </c>
       <c r="L78" t="n">
-        <v>136.6152366638184</v>
+        <v>136.6152374267578</v>
       </c>
       <c r="M78" t="n">
-        <v>139.5241104125977</v>
+        <v>139.5241098022461</v>
       </c>
     </row>
     <row r="79">
@@ -3514,16 +3514,16 @@
         <v>0.03400140991541667</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1272391925537169</v>
+        <v>0.1272391213812336</v>
       </c>
       <c r="K79" t="n">
         <v>212387235</v>
       </c>
       <c r="L79" t="n">
-        <v>136.7147155761719</v>
+        <v>136.7147163391113</v>
       </c>
       <c r="M79" t="n">
-        <v>139.5938784790039</v>
+        <v>139.5938778686524</v>
       </c>
     </row>
     <row r="80">
@@ -3555,16 +3555,16 @@
         <v>-0.01959787741939023</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1051476970357166</v>
+        <v>0.1051476272580631</v>
       </c>
       <c r="K80" t="n">
         <v>210951460</v>
       </c>
       <c r="L80" t="n">
-        <v>136.7931991577148</v>
+        <v>136.7931999206543</v>
       </c>
       <c r="M80" t="n">
-        <v>139.5574728393555</v>
+        <v>139.5574722290039</v>
       </c>
     </row>
     <row r="81">
@@ -3596,16 +3596,16 @@
         <v>0.0309949899088604</v>
       </c>
       <c r="J81" t="n">
-        <v>0.139401738753139</v>
+        <v>0.1394016668127278</v>
       </c>
       <c r="K81" t="n">
         <v>208040385</v>
       </c>
       <c r="L81" t="n">
-        <v>137.1591194152832</v>
+        <v>137.1591201782227</v>
       </c>
       <c r="M81" t="n">
-        <v>139.5908529663086</v>
+        <v>139.590852355957</v>
       </c>
     </row>
     <row r="82">
@@ -3637,16 +3637,16 @@
         <v>0.02265633026365843</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1652164008493169</v>
+        <v>0.1652163272789999</v>
       </c>
       <c r="K82" t="n">
         <v>204055610</v>
       </c>
       <c r="L82" t="n">
-        <v>137.7549896240234</v>
+        <v>137.7549903869629</v>
       </c>
       <c r="M82" t="n">
-        <v>139.6094418334961</v>
+        <v>139.6094412231445</v>
       </c>
     </row>
     <row r="83">
@@ -3678,16 +3678,16 @@
         <v>0.04430889440987062</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2168458513191986</v>
+        <v>0.2168457744890624</v>
       </c>
       <c r="K83" t="n">
         <v>205452220</v>
       </c>
       <c r="L83" t="n">
-        <v>138.5743133544922</v>
+        <v>138.5743141174316</v>
       </c>
       <c r="M83" t="n">
-        <v>139.6388366699219</v>
+        <v>139.6388360595703</v>
       </c>
     </row>
     <row r="84">
@@ -3719,16 +3719,16 @@
         <v>0.00101979165823507</v>
       </c>
       <c r="J84" t="n">
-        <v>0.218086780567732</v>
+        <v>0.2180867036592449</v>
       </c>
       <c r="K84" t="n">
         <v>197921565</v>
       </c>
       <c r="L84" t="n">
-        <v>139.2001777648926</v>
+        <v>139.200178527832</v>
       </c>
       <c r="M84" t="n">
-        <v>139.6058486938477</v>
+        <v>139.6058480834961</v>
       </c>
     </row>
     <row r="85">
@@ -3760,16 +3760,16 @@
         <v>-0.0312458629692034</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1800266079375146</v>
+        <v>0.1800265334320994</v>
       </c>
       <c r="K85" t="n">
         <v>200851770</v>
       </c>
       <c r="L85" t="n">
-        <v>139.3476455688477</v>
+        <v>139.3476463317871</v>
       </c>
       <c r="M85" t="n">
-        <v>139.5058737182617</v>
+        <v>139.5058728027344</v>
       </c>
     </row>
     <row r="86">
@@ -3777,16 +3777,16 @@
         <v>45684</v>
       </c>
       <c r="B86" t="n">
-        <v>124.7728263768109</v>
+        <v>124.7728183363746</v>
       </c>
       <c r="C86" t="n">
-        <v>128.3720332810038</v>
+        <v>128.3720250086324</v>
       </c>
       <c r="D86" t="n">
-        <v>116.674584145311</v>
+        <v>116.6745766267303</v>
       </c>
       <c r="E86" t="n">
-        <v>118.3942108154297</v>
+        <v>118.3942031860352</v>
       </c>
       <c r="F86" t="n">
         <v>818830900</v>
@@ -3798,19 +3798,19 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1696815994678486</v>
+        <v>-0.1696816529740683</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0202021943119427</v>
+        <v>-0.02020231931391892</v>
       </c>
       <c r="K86" t="n">
         <v>236535465</v>
       </c>
       <c r="L86" t="n">
-        <v>138.2578826904297</v>
+        <v>138.2578830718994</v>
       </c>
       <c r="M86" t="n">
-        <v>138.9693908691406</v>
+        <v>138.9693901062012</v>
       </c>
     </row>
     <row r="87">
@@ -3839,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0892586147100114</v>
+        <v>0.08925868490249966</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0672532005196822</v>
+        <v>0.06725313313463999</v>
       </c>
       <c r="K87" t="n">
         <v>259708505</v>
       </c>
       <c r="L87" t="n">
-        <v>137.7110023498535</v>
+        <v>137.7110027313232</v>
       </c>
       <c r="M87" t="n">
-        <v>138.5836798095703</v>
+        <v>138.5836787414551</v>
       </c>
     </row>
     <row r="88">
@@ -3883,16 +3883,16 @@
         <v>-0.04101099572533073</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02348408407532387</v>
+        <v>0.02348401945380951</v>
       </c>
       <c r="K88" t="n">
         <v>274535405</v>
       </c>
       <c r="L88" t="n">
-        <v>137.0456478118896</v>
+        <v>137.0456474304199</v>
       </c>
       <c r="M88" t="n">
-        <v>138.132579498291</v>
+        <v>138.1325784301758</v>
       </c>
     </row>
     <row r="89">
@@ -3924,16 +3924,16 @@
         <v>0.007679915114519931</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03134435496208443</v>
+        <v>0.03134428984428239</v>
       </c>
       <c r="K89" t="n">
         <v>285794945</v>
       </c>
       <c r="L89" t="n">
-        <v>136.4037879943848</v>
+        <v>136.403787612915</v>
       </c>
       <c r="M89" t="n">
-        <v>137.6906781005859</v>
+        <v>137.6906773376465</v>
       </c>
     </row>
     <row r="90">
@@ -3965,16 +3965,16 @@
         <v>-0.03674287784916486</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.006550204692713169</v>
+        <v>-0.006550267417899769</v>
       </c>
       <c r="K90" t="n">
         <v>297420040</v>
       </c>
       <c r="L90" t="n">
-        <v>135.6929428100586</v>
+        <v>135.6929424285889</v>
       </c>
       <c r="M90" t="n">
-        <v>137.2527694702148</v>
+        <v>137.2527687072754</v>
       </c>
     </row>
     <row r="91">
@@ -4006,16 +4006,16 @@
         <v>-0.02840008775682923</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.03476426606144412</v>
+        <v>-0.03476432700522991</v>
       </c>
       <c r="K91" t="n">
         <v>306069465</v>
       </c>
       <c r="L91" t="n">
-        <v>134.6106788635254</v>
+        <v>134.6106784820557</v>
       </c>
       <c r="M91" t="n">
-        <v>136.7832653808594</v>
+        <v>136.7832646179199</v>
       </c>
     </row>
     <row r="92">
@@ -4047,16 +4047,16 @@
         <v>0.01705808590400149</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.01829919199430829</v>
+        <v>-0.0182992539776784</v>
       </c>
       <c r="K92" t="n">
         <v>307430840</v>
       </c>
       <c r="L92" t="n">
-        <v>133.3199600219727</v>
+        <v>133.3199596405029</v>
       </c>
       <c r="M92" t="n">
-        <v>136.2163916015625</v>
+        <v>136.2163908386231</v>
       </c>
     </row>
     <row r="93">
@@ -4064,16 +4064,16 @@
         <v>45693</v>
       </c>
       <c r="B93" t="n">
-        <v>121.7334796984514</v>
+        <v>121.7334871402129</v>
       </c>
       <c r="C93" t="n">
-        <v>124.9727718079483</v>
+        <v>124.9727794477328</v>
       </c>
       <c r="D93" t="n">
-        <v>120.7336975239878</v>
+        <v>120.733704904631</v>
       </c>
       <c r="E93" t="n">
-        <v>124.8028106689453</v>
+        <v>124.8028182983398</v>
       </c>
       <c r="F93" t="n">
         <v>262230800</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.05208593141915263</v>
+        <v>0.05208599573484074</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03283360896560295</v>
+        <v>0.03283360689253012</v>
       </c>
       <c r="K93" t="n">
         <v>307273510</v>
@@ -4097,7 +4097,7 @@
         <v>132.0902282714844</v>
       </c>
       <c r="M93" t="n">
-        <v>135.7954843139648</v>
+        <v>135.7954837036133</v>
       </c>
     </row>
     <row r="94">
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.030841866386635</v>
+        <v>0.03084180336963427</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06468812513294608</v>
+        <v>0.06468805790985965</v>
       </c>
       <c r="K94" t="n">
         <v>302258580</v>
@@ -4138,7 +4138,7 @@
         <v>131.5173530578613</v>
       </c>
       <c r="M94" t="n">
-        <v>135.4359643554687</v>
+        <v>135.4359637451172</v>
       </c>
     </row>
     <row r="95">
@@ -4146,16 +4146,16 @@
         <v>45695</v>
       </c>
       <c r="B95" t="n">
-        <v>129.1918616974696</v>
+        <v>129.1918465115423</v>
       </c>
       <c r="C95" t="n">
-        <v>130.341605166159</v>
+        <v>130.3415898450845</v>
       </c>
       <c r="D95" t="n">
-        <v>124.9727794430354</v>
+        <v>124.9727647530424</v>
       </c>
       <c r="E95" t="n">
-        <v>129.8117218017578</v>
+        <v>129.8117065429688</v>
       </c>
       <c r="F95" t="n">
         <v>228186300</v>
@@ -4167,19 +4167,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.009014705263164169</v>
+        <v>0.009014586657984713</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07428597477821053</v>
+        <v>0.07428578067160951</v>
       </c>
       <c r="K95" t="n">
         <v>302300400</v>
       </c>
       <c r="L95" t="n">
-        <v>131.0039649963379</v>
+        <v>131.0039642333984</v>
       </c>
       <c r="M95" t="n">
-        <v>135.1940124511719</v>
+        <v>135.1940118408203</v>
       </c>
     </row>
     <row r="96">
@@ -4208,19 +4208,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02872766002914418</v>
+        <v>0.02872778095150785</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1051476970357168</v>
+        <v>0.1051476272580631</v>
       </c>
       <c r="K96" t="n">
         <v>302769730</v>
       </c>
       <c r="L96" t="n">
-        <v>130.8869895935059</v>
+        <v>130.8869888305664</v>
       </c>
       <c r="M96" t="n">
-        <v>135.1452105712891</v>
+        <v>135.1452099609375</v>
       </c>
     </row>
     <row r="97">
@@ -4252,16 +4252,16 @@
         <v>-0.005764684199262349</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09877686956876386</v>
+        <v>0.09877680019335622</v>
       </c>
       <c r="K97" t="n">
         <v>301474405</v>
       </c>
       <c r="L97" t="n">
-        <v>130.8654945373535</v>
+        <v>130.8654937744141</v>
       </c>
       <c r="M97" t="n">
-        <v>135.0630172729492</v>
+        <v>135.0630166625976</v>
       </c>
     </row>
     <row r="98">
@@ -4293,16 +4293,16 @@
         <v>-0.0125001063061253</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08504204189244269</v>
+        <v>0.08504197338423514</v>
       </c>
       <c r="K98" t="n">
         <v>299708810</v>
       </c>
       <c r="L98" t="n">
-        <v>130.8345016479492</v>
+        <v>130.8345008850098</v>
       </c>
       <c r="M98" t="n">
-        <v>134.9792221069336</v>
+        <v>134.979221496582</v>
       </c>
     </row>
     <row r="99">
@@ -4334,16 +4334,16 @@
         <v>0.03164555120564772</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1193787953894305</v>
+        <v>0.119378724713243</v>
       </c>
       <c r="K99" t="n">
         <v>300319445</v>
       </c>
       <c r="L99" t="n">
-        <v>130.7870109558106</v>
+        <v>130.7870101928711</v>
       </c>
       <c r="M99" t="n">
-        <v>134.9202252197266</v>
+        <v>134.920224609375</v>
       </c>
     </row>
     <row r="100">
@@ -4375,16 +4375,16 @@
         <v>0.02631391919664594</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1488340385617468</v>
+        <v>0.1488339660257918</v>
       </c>
       <c r="K100" t="n">
         <v>299631645</v>
       </c>
       <c r="L100" t="n">
-        <v>131.0509536743164</v>
+        <v>131.050952911377</v>
       </c>
       <c r="M100" t="n">
-        <v>134.9248150634766</v>
+        <v>134.9248147583008</v>
       </c>
     </row>
     <row r="101">
@@ -4416,16 +4416,16 @@
         <v>0.003961114533224563</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1533847017681569</v>
+        <v>0.1533846289448786</v>
       </c>
       <c r="K101" t="n">
         <v>300531035</v>
       </c>
       <c r="L101" t="n">
-        <v>131.1354354858398</v>
+        <v>131.1354347229004</v>
       </c>
       <c r="M101" t="n">
-        <v>134.9078118896484</v>
+        <v>134.9078115844727</v>
       </c>
     </row>
     <row r="102">
@@ -4457,16 +4457,16 @@
         <v>-0.001219545708001646</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1519780964054407</v>
+        <v>0.1519780236709738</v>
       </c>
       <c r="K102" t="n">
         <v>299020385</v>
       </c>
       <c r="L102" t="n">
-        <v>131.0554527282715</v>
+        <v>131.055451965332</v>
       </c>
       <c r="M102" t="n">
-        <v>134.7898373413086</v>
+        <v>134.7898370361328</v>
       </c>
     </row>
     <row r="103">
@@ -4498,16 +4498,16 @@
         <v>0.00632046381564888</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1592591322801913</v>
+        <v>0.1592590590860088</v>
       </c>
       <c r="K103" t="n">
         <v>294332995</v>
       </c>
       <c r="L103" t="n">
-        <v>130.7075271606445</v>
+        <v>130.7075263977051</v>
       </c>
       <c r="M103" t="n">
-        <v>134.6908587646484</v>
+        <v>134.6908584594727</v>
       </c>
     </row>
     <row r="104">
@@ -4539,13 +4539,13 @@
         <v>-0.04053964113609554</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1122631830738108</v>
+        <v>0.1122631128468943</v>
       </c>
       <c r="K104" t="n">
         <v>297948100</v>
       </c>
       <c r="L104" t="n">
-        <v>130.0681655883789</v>
+        <v>130.0681648254395</v>
       </c>
       <c r="M104" t="n">
         <v>134.5306930541992</v>
@@ -4580,13 +4580,13 @@
         <v>-0.03087095549146035</v>
       </c>
       <c r="J105" t="n">
-        <v>0.07792655585434916</v>
+        <v>0.07792648779540468</v>
       </c>
       <c r="K105" t="n">
         <v>298784275</v>
       </c>
       <c r="L105" t="n">
-        <v>129.4513008117676</v>
+        <v>129.4513000488281</v>
       </c>
       <c r="M105" t="n">
         <v>134.3601306152344</v>
@@ -4597,16 +4597,16 @@
         <v>45713</v>
       </c>
       <c r="B106" t="n">
-        <v>129.9516858300846</v>
+        <v>129.9516936613149</v>
       </c>
       <c r="C106" t="n">
-        <v>130.1716391340913</v>
+        <v>130.1716469785765</v>
       </c>
       <c r="D106" t="n">
-        <v>124.4128991653319</v>
+        <v>124.4129066627803</v>
       </c>
       <c r="E106" t="n">
-        <v>126.6024169921875</v>
+        <v>126.602424621582</v>
       </c>
       <c r="F106" t="n">
         <v>271428700</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.02801665992867297</v>
+        <v>-0.0280166013544012</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04772665411089205</v>
+        <v>0.04772665109749097</v>
       </c>
       <c r="K106" t="n">
         <v>271414165</v>
@@ -4630,7 +4630,7 @@
         <v>129.8617111206055</v>
       </c>
       <c r="M106" t="n">
-        <v>134.1913671875</v>
+        <v>134.1913673400879</v>
       </c>
     </row>
     <row r="107">
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03672127425088734</v>
+        <v>0.03672121177534127</v>
       </c>
       <c r="J107" t="n">
-        <v>0.08620051191646261</v>
+        <v>0.08620044333511112</v>
       </c>
       <c r="K107" t="n">
         <v>258558535</v>
@@ -4671,7 +4671,7 @@
         <v>129.9761863708496</v>
       </c>
       <c r="M107" t="n">
-        <v>134.0308026123047</v>
+        <v>134.0308027648926</v>
       </c>
     </row>
     <row r="108">
@@ -4679,16 +4679,16 @@
         <v>45715</v>
       </c>
       <c r="B108" t="n">
-        <v>134.9705968281912</v>
+        <v>134.9706054005445</v>
       </c>
       <c r="C108" t="n">
-        <v>134.9805891582108</v>
+        <v>134.9805977311987</v>
       </c>
       <c r="D108" t="n">
-        <v>119.9838638050335</v>
+        <v>119.9838714255382</v>
       </c>
       <c r="E108" t="n">
-        <v>120.1238327026367</v>
+        <v>120.1238403320312</v>
       </c>
       <c r="F108" t="n">
         <v>443175800</v>
@@ -4700,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.08478069375412489</v>
+        <v>-0.08478063562603311</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.005888321039900668</v>
+        <v>-0.005888320668118507</v>
       </c>
       <c r="K108" t="n">
         <v>257361295</v>
       </c>
       <c r="L108" t="n">
-        <v>129.7987251281738</v>
+        <v>129.7987255096436</v>
       </c>
       <c r="M108" t="n">
-        <v>133.6870774841309</v>
+        <v>133.6870777893066</v>
       </c>
     </row>
     <row r="109">
@@ -4741,19 +4741,19 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03970035702420183</v>
+        <v>0.03970029098998085</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03357826753674398</v>
+        <v>0.03357820227789565</v>
       </c>
       <c r="K109" t="n">
         <v>257169575</v>
       </c>
       <c r="L109" t="n">
-        <v>129.8122219085693</v>
+        <v>129.8122222900391</v>
       </c>
       <c r="M109" t="n">
-        <v>133.5005180358887</v>
+        <v>133.5005183410645</v>
       </c>
     </row>
     <row r="110">
@@ -4785,16 +4785,16 @@
         <v>-0.08693564573326684</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.05627652656743409</v>
+        <v>-0.05627658615296227</v>
       </c>
       <c r="K110" t="n">
         <v>258330590</v>
       </c>
       <c r="L110" t="n">
-        <v>129.511787033081</v>
+        <v>129.5117874145508</v>
       </c>
       <c r="M110" t="n">
-        <v>133.1417964172363</v>
+        <v>133.1417967224121</v>
       </c>
     </row>
     <row r="111">
@@ -4826,16 +4826,16 @@
         <v>0.01692092817627522</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.0403078494552167</v>
+        <v>-0.04030791004898726</v>
       </c>
       <c r="K111" t="n">
         <v>259676970</v>
       </c>
       <c r="L111" t="n">
-        <v>129.4782939910889</v>
+        <v>129.4782943725586</v>
       </c>
       <c r="M111" t="n">
-        <v>132.8538591003418</v>
+        <v>132.8538594055176</v>
       </c>
     </row>
     <row r="112">
@@ -4867,16 +4867,16 @@
         <v>0.01129408219751271</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.02946900742265612</v>
+        <v>-0.02946906870077781</v>
       </c>
       <c r="K112" t="n">
         <v>261066365</v>
       </c>
       <c r="L112" t="n">
-        <v>129.4108085632324</v>
+        <v>129.4108089447022</v>
       </c>
       <c r="M112" t="n">
-        <v>132.6217095947266</v>
+        <v>132.6217098999024</v>
       </c>
     </row>
     <row r="113">
@@ -4908,7 +4908,7 @@
         <v>-0.05737422564780548</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.08515247158897732</v>
+        <v>-0.08515252935131423</v>
       </c>
       <c r="K113" t="n">
         <v>264013920</v>
@@ -4917,7 +4917,7 @@
         <v>128.6979640960693</v>
       </c>
       <c r="M113" t="n">
-        <v>132.2195976257324</v>
+        <v>132.2195979309082</v>
       </c>
     </row>
     <row r="114">
@@ -4949,7 +4949,7 @@
         <v>0.01917336549460891</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.06761176555491322</v>
+        <v>-0.06761182442474845</v>
       </c>
       <c r="K114" t="n">
         <v>268527515</v>
@@ -4958,7 +4958,7 @@
         <v>127.8986389160156</v>
       </c>
       <c r="M114" t="n">
-        <v>131.7794937133789</v>
+        <v>131.7794940185547</v>
       </c>
     </row>
     <row r="115">
@@ -4966,16 +4966,16 @@
         <v>45726</v>
       </c>
       <c r="B115" t="n">
-        <v>109.8760653813945</v>
+        <v>109.8760575437572</v>
       </c>
       <c r="C115" t="n">
-        <v>111.8256376216472</v>
+        <v>111.8256296449437</v>
       </c>
       <c r="D115" t="n">
-        <v>105.4370299694557</v>
+        <v>105.4370224484619</v>
       </c>
       <c r="E115" t="n">
-        <v>106.9567031860352</v>
+        <v>106.9566955566406</v>
       </c>
       <c r="F115" t="n">
         <v>366487400</v>
@@ -4987,19 +4987,19 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.05066997072651191</v>
+        <v>-0.0506700384437575</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.1148558500999899</v>
+        <v>-0.1148559691256513</v>
       </c>
       <c r="K115" t="n">
         <v>275442570</v>
       </c>
       <c r="L115" t="n">
-        <v>126.7558879852295</v>
+        <v>126.7558883666992</v>
       </c>
       <c r="M115" t="n">
-        <v>131.1258363342285</v>
+        <v>131.1258364868164</v>
       </c>
     </row>
     <row r="116">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01663859886444352</v>
+        <v>0.01663867138292319</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.1001282916525947</v>
+        <v>-0.100128348469377</v>
       </c>
       <c r="K116" t="n">
         <v>282336400</v>
       </c>
       <c r="L116" t="n">
-        <v>125.5156581878662</v>
+        <v>125.5156585693359</v>
       </c>
       <c r="M116" t="n">
-        <v>130.4967732238769</v>
+        <v>130.4967733764648</v>
       </c>
     </row>
     <row r="117">
@@ -5072,16 +5072,16 @@
         <v>0.06427593440097956</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.04228819675755946</v>
+        <v>-0.04228825722629359</v>
       </c>
       <c r="K117" t="n">
         <v>289584155</v>
       </c>
       <c r="L117" t="n">
-        <v>124.6633758544922</v>
+        <v>124.6633762359619</v>
       </c>
       <c r="M117" t="n">
-        <v>130.0132916259766</v>
+        <v>130.0132917785645</v>
       </c>
     </row>
     <row r="118">
@@ -5113,16 +5113,16 @@
         <v>-0.00138241662829186</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.04361215347947323</v>
+        <v>-0.04361221386461434</v>
       </c>
       <c r="K118" t="n">
         <v>296521880</v>
       </c>
       <c r="L118" t="n">
-        <v>123.8860771179199</v>
+        <v>123.8860774993896</v>
       </c>
       <c r="M118" t="n">
-        <v>129.5849978637695</v>
+        <v>129.5849977111816</v>
       </c>
     </row>
     <row r="119">
@@ -5154,16 +5154,16 @@
         <v>0.05269077272423583</v>
       </c>
       <c r="J119" t="n">
-        <v>0.006780661177761216</v>
+        <v>0.006780597610880346</v>
       </c>
       <c r="K119" t="n">
         <v>300530055</v>
       </c>
       <c r="L119" t="n">
-        <v>123.205785369873</v>
+        <v>123.2057857513428</v>
       </c>
       <c r="M119" t="n">
-        <v>129.2688906860351</v>
+        <v>129.2688905334473</v>
       </c>
     </row>
     <row r="120">
@@ -5195,16 +5195,16 @@
         <v>-0.01758857219116783</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.01092717316203551</v>
+        <v>-0.01092723561086573</v>
       </c>
       <c r="K120" t="n">
         <v>303531150</v>
       </c>
       <c r="L120" t="n">
-        <v>122.2405452728271</v>
+        <v>122.2405456542969</v>
       </c>
       <c r="M120" t="n">
-        <v>128.9739747619629</v>
+        <v>128.973974609375</v>
       </c>
     </row>
     <row r="121">
@@ -5236,16 +5236,16 @@
         <v>-0.03430103864873846</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.04485339842182157</v>
+        <v>-0.04485345872859203</v>
       </c>
       <c r="K121" t="n">
         <v>307556665</v>
       </c>
       <c r="L121" t="n">
-        <v>121.0428367614746</v>
+        <v>121.0428371429443</v>
       </c>
       <c r="M121" t="n">
-        <v>128.516686706543</v>
+        <v>128.5166865539551</v>
       </c>
     </row>
     <row r="122">
@@ -5277,16 +5277,16 @@
         <v>0.01810621112728228</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.02755931239614084</v>
+        <v>-0.02755937379483853</v>
       </c>
       <c r="K122" t="n">
         <v>312851175</v>
       </c>
       <c r="L122" t="n">
-        <v>119.9581134796143</v>
+        <v>119.958113861084</v>
       </c>
       <c r="M122" t="n">
-        <v>127.9780201721191</v>
+        <v>127.9780200195312</v>
       </c>
     </row>
     <row r="123">
@@ -5318,16 +5318,16 @@
         <v>0.008594277896195823</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.01920188688930557</v>
+        <v>-0.01920194881568071</v>
       </c>
       <c r="K123" t="n">
         <v>318097480</v>
       </c>
       <c r="L123" t="n">
-        <v>118.8798934936523</v>
+        <v>118.8798938751221</v>
       </c>
       <c r="M123" t="n">
-        <v>127.3603729248047</v>
+        <v>127.3603727722168</v>
       </c>
     </row>
     <row r="124">
@@ -5359,16 +5359,16 @@
         <v>-0.00700244218990731</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.02606986897633334</v>
+        <v>-0.02606993046907269</v>
       </c>
       <c r="K124" t="n">
         <v>320011525</v>
       </c>
       <c r="L124" t="n">
-        <v>118.0441173553467</v>
+        <v>118.0441177368164</v>
       </c>
       <c r="M124" t="n">
-        <v>126.9118873596191</v>
+        <v>126.9118872070313</v>
       </c>
     </row>
     <row r="125">
@@ -5400,16 +5400,16 @@
         <v>0.0315208852922999</v>
       </c>
       <c r="J125" t="n">
-        <v>0.004629270966378218</v>
+        <v>0.004629207535333357</v>
       </c>
       <c r="K125" t="n">
         <v>318865095</v>
       </c>
       <c r="L125" t="n">
-        <v>117.6012722015381</v>
+        <v>117.6012725830078</v>
       </c>
       <c r="M125" t="n">
-        <v>126.5381922912598</v>
+        <v>126.5381921386719</v>
       </c>
     </row>
     <row r="126">
@@ -5441,7 +5441,7 @@
         <v>-0.005930320618171225</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.001328502712852009</v>
+        <v>-0.001328565767730439</v>
       </c>
       <c r="K126" t="n">
         <v>313666020</v>
@@ -5450,7 +5450,7 @@
         <v>117.3048923492432</v>
       </c>
       <c r="M126" t="n">
-        <v>126.2340803527832</v>
+        <v>126.2340802001953</v>
       </c>
     </row>
     <row r="127">
@@ -5482,7 +5482,7 @@
         <v>-0.05741985409452688</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.05867207437544275</v>
+        <v>-0.05867213380971925</v>
       </c>
       <c r="K127" t="n">
         <v>312211495</v>
@@ -5491,7 +5491,7 @@
         <v>116.4296058654785</v>
       </c>
       <c r="M127" t="n">
-        <v>125.8449743652344</v>
+        <v>125.8449742126465</v>
       </c>
     </row>
     <row r="128">
@@ -5523,16 +5523,16 @@
         <v>-0.02048169295134605</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.0779520639146124</v>
+        <v>-0.07795212213157432</v>
       </c>
       <c r="K128" t="n">
         <v>301897810</v>
       </c>
       <c r="L128" t="n">
-        <v>115.9942134857178</v>
+        <v>115.994213104248</v>
       </c>
       <c r="M128" t="n">
-        <v>125.4386682128906</v>
+        <v>125.4386680603027</v>
       </c>
     </row>
     <row r="129">
@@ -5564,16 +5564,16 @@
         <v>-0.015794689443282</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.09251552471690028</v>
+        <v>-0.09251558201434329</v>
       </c>
       <c r="K129" t="n">
         <v>293936880</v>
       </c>
       <c r="L129" t="n">
-        <v>115.2323841094971</v>
+        <v>115.2323837280273</v>
       </c>
       <c r="M129" t="n">
-        <v>124.9075854492187</v>
+        <v>124.9075852966309</v>
       </c>
     </row>
     <row r="130">
@@ -5605,16 +5605,16 @@
         <v>-0.01176258751043113</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.1031898902717754</v>
+        <v>-0.1031899468952523</v>
       </c>
       <c r="K130" t="n">
         <v>288328445</v>
       </c>
       <c r="L130" t="n">
-        <v>114.9489444732666</v>
+        <v>114.9489440917969</v>
       </c>
       <c r="M130" t="n">
-        <v>124.404094543457</v>
+        <v>124.4040943908691</v>
       </c>
     </row>
     <row r="131">
@@ -5646,16 +5646,16 @@
         <v>0.01633140887126228</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.0885437176899222</v>
+        <v>-0.08854377523814028</v>
       </c>
       <c r="K131" t="n">
         <v>279550980</v>
       </c>
       <c r="L131" t="n">
-        <v>114.6575145721436</v>
+        <v>114.6575141906738</v>
       </c>
       <c r="M131" t="n">
-        <v>123.8532171630859</v>
+        <v>123.853217010498</v>
       </c>
     </row>
     <row r="132">
@@ -5687,16 +5687,16 @@
         <v>0.002451203829599846</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.08630955256021089</v>
+        <v>-0.08630961024949135</v>
       </c>
       <c r="K132" t="n">
         <v>276364145</v>
       </c>
       <c r="L132" t="n">
-        <v>114.3140972137451</v>
+        <v>114.3140968322754</v>
       </c>
       <c r="M132" t="n">
-        <v>123.2453526306152</v>
+        <v>123.2453524780273</v>
       </c>
     </row>
     <row r="133">
@@ -5728,16 +5728,16 @@
         <v>-0.07806553577742859</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.1576372868743164</v>
+        <v>-0.1576373400600524</v>
       </c>
       <c r="K133" t="n">
         <v>277243520</v>
       </c>
       <c r="L133" t="n">
-        <v>113.8761608123779</v>
+        <v>113.8761604309082</v>
       </c>
       <c r="M133" t="n">
-        <v>122.3403366088867</v>
+        <v>122.3403364562988</v>
       </c>
     </row>
     <row r="134">
@@ -5769,16 +5769,16 @@
         <v>-0.07357565530166099</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.2196146754942236</v>
+        <v>-0.2196147247667842</v>
       </c>
       <c r="K134" t="n">
         <v>286769435</v>
       </c>
       <c r="L134" t="n">
-        <v>112.9577945709229</v>
+        <v>112.9577941894531</v>
       </c>
       <c r="M134" t="n">
-        <v>121.282540435791</v>
+        <v>121.2825402832031</v>
       </c>
     </row>
     <row r="135">
@@ -5810,7 +5810,7 @@
         <v>0.03530901884287374</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.192060035366547</v>
+        <v>-0.1920600863788734</v>
       </c>
       <c r="K135" t="n">
         <v>298997130</v>
@@ -5819,7 +5819,7 @@
         <v>112.491344833374</v>
       </c>
       <c r="M135" t="n">
-        <v>120.3833160400391</v>
+        <v>120.3833158874512</v>
       </c>
     </row>
     <row r="136">
@@ -5851,7 +5851,7 @@
         <v>-0.01372377661314916</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.2031480229580122</v>
+        <v>-0.2031480732702567</v>
       </c>
       <c r="K136" t="n">
         <v>305066015</v>
@@ -5892,7 +5892,7 @@
         <v>0.1872273416115149</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.05395554563856086</v>
+        <v>-0.05395560537063326</v>
       </c>
       <c r="K137" t="n">
         <v>319519055</v>
@@ -5933,7 +5933,7 @@
         <v>-0.05912707353705149</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.1098923856609094</v>
+        <v>-0.1098924418611992</v>
       </c>
       <c r="K138" t="n">
         <v>326458020</v>
@@ -5974,7 +5974,7 @@
         <v>0.03123543860990652</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.08208948391701043</v>
+        <v>-0.08208954187274087</v>
       </c>
       <c r="K139" t="n">
         <v>328249210</v>
@@ -6015,7 +6015,7 @@
         <v>-0.001983218171814349</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.08390990073260574</v>
+        <v>-0.08390995857339734</v>
       </c>
       <c r="K140" t="n">
         <v>328709385</v>
@@ -6056,7 +6056,7 @@
         <v>0.0134586059629247</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.07158060506002928</v>
+        <v>-0.07158066367927729</v>
       </c>
       <c r="K141" t="n">
         <v>325173385</v>
@@ -6097,7 +6097,7 @@
         <v>-0.06871657979487544</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.1353784104955318</v>
+        <v>-0.1353784650866655</v>
       </c>
       <c r="K142" t="n">
         <v>331352920</v>
@@ -6138,7 +6138,7 @@
         <v>-0.02871091624866096</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.1602024885385787</v>
+        <v>-0.1602025415623509</v>
       </c>
       <c r="K143" t="n">
         <v>333537310</v>
@@ -6147,7 +6147,7 @@
         <v>108.7553146362305</v>
       </c>
       <c r="M143" t="n">
-        <v>118.0264074707031</v>
+        <v>118.0264073181152</v>
       </c>
     </row>
     <row r="144">
@@ -6179,7 +6179,7 @@
         <v>-0.04512750827523981</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.1981004576865798</v>
+        <v>-0.1981005083175212</v>
       </c>
       <c r="K144" t="n">
         <v>334637440</v>
@@ -6188,7 +6188,7 @@
         <v>107.71594581604</v>
       </c>
       <c r="M144" t="n">
-        <v>117.3913244628906</v>
+        <v>117.3913243103027</v>
       </c>
     </row>
     <row r="145">
@@ -6220,7 +6220,7 @@
         <v>0.02043125555584435</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.1817166432074597</v>
+        <v>-0.1817166948728548</v>
       </c>
       <c r="K145" t="n">
         <v>335265055</v>
@@ -6229,7 +6229,7 @@
         <v>106.5900871276855</v>
       </c>
       <c r="M145" t="n">
-        <v>116.7726411437988</v>
+        <v>116.7726412963867</v>
       </c>
     </row>
     <row r="146">
@@ -6261,7 +6261,7 @@
         <v>0.03862877687705457</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.1501073579957134</v>
+        <v>-0.1501074116568796</v>
       </c>
       <c r="K146" t="n">
         <v>339268995</v>
@@ -6270,7 +6270,7 @@
         <v>105.6911998748779</v>
       </c>
       <c r="M146" t="n">
-        <v>116.155764465332</v>
+        <v>116.1557646179199</v>
       </c>
     </row>
     <row r="147">
@@ -6302,7 +6302,7 @@
         <v>0.03621844343883462</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.1193255694121994</v>
+        <v>-0.1193256250168895</v>
       </c>
       <c r="K147" t="n">
         <v>335636580</v>
@@ -6311,7 +6311,7 @@
         <v>105.3247455596924</v>
       </c>
       <c r="M147" t="n">
-        <v>115.6286747741699</v>
+        <v>115.6286749267578</v>
       </c>
     </row>
     <row r="148">
@@ -6343,7 +6343,7 @@
         <v>0.04303310877209787</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.08142741084790928</v>
+        <v>-0.08142746884544194</v>
       </c>
       <c r="K148" t="n">
         <v>336344710</v>
@@ -6352,7 +6352,7 @@
         <v>105.3037483215332</v>
       </c>
       <c r="M148" t="n">
-        <v>115.2263668823242</v>
+        <v>115.2263670349121</v>
       </c>
     </row>
     <row r="149">
@@ -6384,7 +6384,7 @@
         <v>-0.02053878781642582</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.1002937783504889</v>
+        <v>-0.1002938351568226</v>
       </c>
       <c r="K149" t="n">
         <v>335236510</v>
@@ -6393,7 +6393,7 @@
         <v>105.2567539215088</v>
       </c>
       <c r="M149" t="n">
-        <v>114.6954826354981</v>
+        <v>114.6954827880859</v>
       </c>
     </row>
     <row r="150">
@@ -6425,7 +6425,7 @@
         <v>0.002667150420729181</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.09789412652288376</v>
+        <v>-0.09789418348072843</v>
       </c>
       <c r="K150" t="n">
         <v>328798090</v>
@@ -6434,7 +6434,7 @@
         <v>105.2887496948242</v>
       </c>
       <c r="M150" t="n">
-        <v>114.0992129516601</v>
+        <v>114.0992131042481</v>
       </c>
     </row>
     <row r="151">
@@ -6466,7 +6466,7 @@
         <v>-0.0009172243677783021</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.09872156001235288</v>
+        <v>-0.09872161691795445</v>
       </c>
       <c r="K151" t="n">
         <v>329419620</v>
@@ -6475,7 +6475,7 @@
         <v>105.2272575378418</v>
       </c>
       <c r="M151" t="n">
-        <v>113.4899459838867</v>
+        <v>113.4899461364746</v>
       </c>
     </row>
     <row r="152">
@@ -6507,7 +6507,7 @@
         <v>0.02469700304723799</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.07646268363356812</v>
+        <v>-0.07646274194456748</v>
       </c>
       <c r="K152" t="n">
         <v>330195635</v>
@@ -6516,7 +6516,7 @@
         <v>105.2867500305176</v>
       </c>
       <c r="M152" t="n">
-        <v>112.9378715515137</v>
+        <v>112.9378717041016</v>
       </c>
     </row>
     <row r="153">
@@ -6548,7 +6548,7 @@
         <v>0.02589377734008202</v>
       </c>
       <c r="J153" t="n">
-        <v>-0.05254881399831879</v>
+        <v>-0.05254887381921025</v>
       </c>
       <c r="K153" t="n">
         <v>322766905</v>
@@ -6557,7 +6557,7 @@
         <v>105.9216701507568</v>
       </c>
       <c r="M153" t="n">
-        <v>112.4259938049316</v>
+        <v>112.4259939575195</v>
       </c>
     </row>
     <row r="154">
@@ -6589,7 +6589,7 @@
         <v>-0.005938881460677781</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.05817561428176132</v>
+        <v>-0.05817567374738364</v>
       </c>
       <c r="K154" t="n">
         <v>302811375</v>
@@ -6598,7 +6598,7 @@
         <v>106.8970474243164</v>
       </c>
       <c r="M154" t="n">
-        <v>112.014093170166</v>
+        <v>112.0140933227539</v>
       </c>
     </row>
     <row r="155">
@@ -6630,7 +6630,7 @@
         <v>-0.002459988236033883</v>
       </c>
       <c r="J155" t="n">
-        <v>-0.06049249119103806</v>
+        <v>-0.06049255051037561</v>
       </c>
       <c r="K155" t="n">
         <v>280185590</v>
@@ -6639,7 +6639,7 @@
         <v>107.6919479370117</v>
       </c>
       <c r="M155" t="n">
-        <v>111.6795748901367</v>
+        <v>111.6795750427246</v>
       </c>
     </row>
     <row r="156">
@@ -6671,7 +6671,7 @@
         <v>0.03100226256066607</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.0313656327252253</v>
+        <v>-0.03136569388359656</v>
       </c>
       <c r="K156" t="n">
         <v>266711360</v>
@@ -6712,7 +6712,7 @@
         <v>0.002648266209549277</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.02880043106096342</v>
+        <v>-0.02880049238129823</v>
       </c>
       <c r="K157" t="n">
         <v>245986850</v>
@@ -6753,7 +6753,7 @@
         <v>-0.006134513449693735</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.03475826787895664</v>
+        <v>-0.03475832882312113</v>
       </c>
       <c r="K158" t="n">
         <v>230744840</v>
@@ -6762,7 +6762,7 @@
         <v>109.3357414245606</v>
       </c>
       <c r="M158" t="n">
-        <v>111.1407382202148</v>
+        <v>111.140738067627</v>
       </c>
     </row>
     <row r="159">
@@ -6794,7 +6794,7 @@
         <v>0.05443638236809178</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0177860001284238</v>
+        <v>0.01778593586667943</v>
       </c>
       <c r="K159" t="n">
         <v>226325140</v>
@@ -6803,7 +6803,7 @@
         <v>109.9391658782959</v>
       </c>
       <c r="M159" t="n">
-        <v>111.1025729370117</v>
+        <v>111.1025727844238</v>
       </c>
     </row>
     <row r="160">
@@ -6835,7 +6835,7 @@
         <v>0.05634142002011444</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07512950865225165</v>
+        <v>0.07512944076990924</v>
       </c>
       <c r="K160" t="n">
         <v>229611395</v>
@@ -6844,7 +6844,7 @@
         <v>110.9000450134277</v>
       </c>
       <c r="M160" t="n">
-        <v>111.4201428222656</v>
+        <v>111.4201426696777</v>
       </c>
     </row>
     <row r="161">
@@ -6876,7 +6876,7 @@
         <v>0.04163778783256467</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1198955230260437</v>
+        <v>0.1198954523172306</v>
       </c>
       <c r="K161" t="n">
         <v>232222090</v>
@@ -6885,7 +6885,7 @@
         <v>112.0568992614746</v>
       </c>
       <c r="M161" t="n">
-        <v>111.807307434082</v>
+        <v>111.8073072814941</v>
       </c>
     </row>
     <row r="162">
@@ -6917,7 +6917,7 @@
         <v>-0.003768269947001301</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1156754543828433</v>
+        <v>0.1156753839404803</v>
       </c>
       <c r="K162" t="n">
         <v>223702875</v>
@@ -6926,7 +6926,7 @@
         <v>113.5737083435059</v>
       </c>
       <c r="M162" t="n">
-        <v>112.1580790710449</v>
+        <v>112.158078918457</v>
       </c>
     </row>
     <row r="163">
@@ -6958,7 +6958,7 @@
         <v>0.004227566230946556</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1203920462584882</v>
+        <v>0.1203919755183254</v>
       </c>
       <c r="K163" t="n">
         <v>220404125</v>
@@ -6967,7 +6967,7 @@
         <v>115.2689952850342</v>
       </c>
       <c r="M163" t="n">
-        <v>112.6548199462891</v>
+        <v>112.6548197937012</v>
       </c>
     </row>
     <row r="164">
@@ -6999,7 +6999,7 @@
         <v>0.00125557089140349</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1217987778987304</v>
+        <v>0.1217987070697482</v>
       </c>
       <c r="K164" t="n">
         <v>215636800</v>
@@ -7008,7 +7008,7 @@
         <v>117.2017520904541</v>
       </c>
       <c r="M164" t="n">
-        <v>113.112569732666</v>
+        <v>113.1125695800781</v>
       </c>
     </row>
     <row r="165">
@@ -7040,7 +7040,7 @@
         <v>-0.008777862303089301</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1119517826945615</v>
+        <v>0.1119517124873064</v>
       </c>
       <c r="K165" t="n">
         <v>211662270</v>
@@ -7081,7 +7081,7 @@
         <v>-0.01919921813560177</v>
       </c>
       <c r="J166" t="n">
-        <v>0.09060317786233729</v>
+        <v>0.09060310900300661</v>
       </c>
       <c r="K166" t="n">
         <v>212816405</v>
@@ -7122,7 +7122,7 @@
         <v>0.007814918860036713</v>
       </c>
       <c r="J167" t="n">
-        <v>0.09912615320582963</v>
+        <v>0.09912608380836896</v>
       </c>
       <c r="K167" t="n">
         <v>211142855</v>
@@ -7163,7 +7163,7 @@
         <v>-0.01159379562530183</v>
       </c>
       <c r="J168" t="n">
-        <v>0.08638310921913694</v>
+        <v>0.08638304062625646</v>
       </c>
       <c r="K168" t="n">
         <v>208530685</v>
@@ -7204,7 +7204,7 @@
         <v>0.03206631904936086</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1212194166091944</v>
+        <v>0.1212193458167927</v>
       </c>
       <c r="K169" t="n">
         <v>207792940</v>
@@ -7245,7 +7245,7 @@
         <v>-0.005092121756817503</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1155100308237125</v>
+        <v>0.1155099603917944</v>
       </c>
       <c r="K170" t="n">
         <v>214471780</v>
@@ -7286,7 +7286,7 @@
         <v>0.03249021909831074</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1517531961315381</v>
+        <v>0.1517531234112717</v>
       </c>
       <c r="K171" t="n">
         <v>221181645</v>
@@ -7327,7 +7327,7 @@
         <v>-0.0291687941278016</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1181579442675398</v>
+        <v>0.1181578736684359</v>
       </c>
       <c r="K172" t="n">
         <v>226034115</v>
@@ -7368,7 +7368,7 @@
         <v>0.01665058116724927</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1367759238763711</v>
+        <v>0.136775852101751</v>
       </c>
       <c r="K173" t="n">
         <v>226407530</v>
@@ -7409,7 +7409,7 @@
         <v>0.02795160251329598</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1685506326472481</v>
+        <v>0.1685505588664125</v>
       </c>
       <c r="K174" t="n">
         <v>231028310</v>
@@ -7450,7 +7450,7 @@
         <v>0.004956867043901525</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1743429827673475</v>
+        <v>0.1743429086207902</v>
       </c>
       <c r="K175" t="n">
         <v>231458070</v>
@@ -7491,7 +7491,7 @@
         <v>-0.01359914982194588</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1583729166023435</v>
+        <v>0.1583728434641163</v>
       </c>
       <c r="K176" t="n">
         <v>232690025</v>
@@ -7532,7 +7532,7 @@
         <v>0.01235791402178799</v>
       </c>
       <c r="J177" t="n">
-        <v>0.172687989510883</v>
+        <v>0.1726879154688199</v>
       </c>
       <c r="K177" t="n">
         <v>230467930</v>
@@ -7573,7 +7573,7 @@
         <v>0.006421192357627836</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1802180446670123</v>
+        <v>0.1802179701495108</v>
       </c>
       <c r="K178" t="n">
         <v>233075045</v>
@@ -7614,7 +7614,7 @@
         <v>0.009324835355968286</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1912233836176751</v>
+        <v>0.1912233084053101</v>
       </c>
       <c r="K179" t="n">
         <v>229617975</v>
@@ -7655,7 +7655,7 @@
         <v>-0.007780565515463356</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1819549920378858</v>
+        <v>0.1819549174107156</v>
       </c>
       <c r="K180" t="n">
         <v>221481170</v>
@@ -7696,7 +7696,7 @@
         <v>0.01519287596692265</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1999122876304025</v>
+        <v>0.199912211869431</v>
       </c>
       <c r="K181" t="n">
         <v>215540380</v>
@@ -7737,7 +7737,7 @@
         <v>-0.02089656441087651</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1748382432245317</v>
+        <v>0.174838169046704</v>
       </c>
       <c r="K182" t="n">
         <v>213249780</v>
@@ -7778,7 +7778,7 @@
         <v>0.01915899196667614</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1973469596886144</v>
+        <v>0.1973468840896144</v>
       </c>
       <c r="K183" t="n">
         <v>211079340</v>
@@ -7819,7 +7819,7 @@
         <v>-0.003939518675062925</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1926299889803913</v>
+        <v>0.1926299136792149</v>
       </c>
       <c r="K184" t="n">
         <v>208377010</v>
@@ -7860,7 +7860,7 @@
         <v>0.009436588326663609</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2038843472124325</v>
+        <v>0.2038842712006701</v>
       </c>
       <c r="K185" t="n">
         <v>208376005</v>
@@ -7901,7 +7901,7 @@
         <v>-0.01120422117934194</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1903957607119167</v>
+        <v>0.190395685551807</v>
       </c>
       <c r="K186" t="n">
         <v>206993380</v>
@@ -7942,7 +7942,7 @@
         <v>0.002224503655632759</v>
       </c>
       <c r="J187" t="n">
-        <v>0.19304380043327</v>
+        <v>0.1930437251059665</v>
       </c>
       <c r="K187" t="n">
         <v>205341625</v>
@@ -7983,7 +7983,7 @@
         <v>0.02587218262214064</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2239104475142923</v>
+        <v>0.2239103702381069</v>
       </c>
       <c r="K188" t="n">
         <v>204778865</v>
@@ -8024,7 +8024,7 @@
         <v>0.04334019415764812</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2769549639411357</v>
+        <v>0.2769548833157853</v>
       </c>
       <c r="K189" t="n">
         <v>208588510</v>
@@ -8065,7 +8065,7 @@
         <v>0.004601133867798479</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2828304046733787</v>
+        <v>0.2828303236770602</v>
       </c>
       <c r="K190" t="n">
         <v>203294740</v>
@@ -8106,7 +8106,7 @@
         <v>0.0176106117857413</v>
       </c>
       <c r="J191" t="n">
-        <v>0.3054218329170271</v>
+        <v>0.3054217504943137</v>
       </c>
       <c r="K191" t="n">
         <v>197994370</v>
@@ -8147,7 +8147,7 @@
         <v>0.001521418502201888</v>
       </c>
       <c r="J192" t="n">
-        <v>0.3074079258468054</v>
+        <v>0.3074078432986926</v>
       </c>
       <c r="K192" t="n">
         <v>191064840</v>
@@ -8188,7 +8188,7 @@
         <v>-0.02968537344415378</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2685970333241965</v>
+        <v>0.2685969532265553</v>
       </c>
       <c r="K193" t="n">
         <v>191838865</v>
@@ -8229,7 +8229,7 @@
         <v>0.02576640912401551</v>
       </c>
       <c r="J194" t="n">
-        <v>0.3012842234983402</v>
+        <v>0.3012841413368703</v>
       </c>
       <c r="K194" t="n">
         <v>189121130</v>
@@ -8270,7 +8270,7 @@
         <v>0.01329088773313414</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3185794460217553</v>
+        <v>0.3185793627682865</v>
       </c>
       <c r="K195" t="n">
         <v>187950895</v>
@@ -8311,7 +8311,7 @@
         <v>-0.006903425874769886</v>
       </c>
       <c r="J196" t="n">
-        <v>0.309476730556149</v>
+        <v>0.3094766478774142</v>
       </c>
       <c r="K196" t="n">
         <v>183387950</v>
@@ -8352,7 +8352,7 @@
         <v>0.01112235955220875</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3240412015786454</v>
+        <v>0.324041117980328</v>
       </c>
       <c r="K197" t="n">
         <v>182595290</v>
@@ -8393,7 +8393,7 @@
         <v>0.01799999599434221</v>
       </c>
       <c r="J198" t="n">
-        <v>0.347873937903405</v>
+        <v>0.3478738528003182</v>
       </c>
       <c r="K198" t="n">
         <v>182522385</v>
@@ -8434,7 +8434,7 @@
         <v>0.007490231782154355</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3579698261114266</v>
+        <v>0.3579697403708981</v>
       </c>
       <c r="K199" t="n">
         <v>183113495</v>
@@ -8475,7 +8475,7 @@
         <v>0.004996907154757091</v>
       </c>
       <c r="J200" t="n">
-        <v>0.364755475251467</v>
+        <v>0.364755389082501</v>
       </c>
       <c r="K200" t="n">
         <v>184410460</v>
@@ -8516,7 +8516,7 @@
         <v>-0.005153971450429062</v>
       </c>
       <c r="J201" t="n">
-        <v>0.3577215644952041</v>
+        <v>0.3577214787703507</v>
       </c>
       <c r="K201" t="n">
         <v>183141000</v>
@@ -8557,7 +8557,7 @@
         <v>0.04040946862717854</v>
       </c>
       <c r="J202" t="n">
-        <v>0.4125863714601168</v>
+        <v>0.4125862822711677</v>
       </c>
       <c r="K202" t="n">
         <v>185631340</v>
@@ -8598,7 +8598,7 @@
         <v>0.003925046601380044</v>
       </c>
       <c r="J203" t="n">
-        <v>0.4181308387965721</v>
+        <v>0.4181307492575521</v>
       </c>
       <c r="K203" t="n">
         <v>184416230</v>
@@ -8639,7 +8639,7 @@
         <v>0.009511613744672687</v>
       </c>
       <c r="J204" t="n">
-        <v>0.4316195515746137</v>
+        <v>0.4316194611839332</v>
       </c>
       <c r="K204" t="n">
         <v>185502885</v>
@@ -8680,7 +8680,7 @@
         <v>-0.003410399265631581</v>
       </c>
       <c r="J205" t="n">
-        <v>0.4267371573072598</v>
+        <v>0.4267370672248476</v>
       </c>
       <c r="K205" t="n">
         <v>184751000</v>
@@ -8721,7 +8721,7 @@
         <v>-0.005974107010490393</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4182136768536633</v>
+        <v>0.418213587309413</v>
       </c>
       <c r="K206" t="n">
         <v>178759495</v>
@@ -8762,7 +8762,7 @@
         <v>-0.02538223247288496</v>
       </c>
       <c r="J207" t="n">
-        <v>0.3822162476115387</v>
+        <v>0.3822161603401213</v>
       </c>
       <c r="K207" t="n">
         <v>180699765</v>
@@ -8803,7 +8803,7 @@
         <v>0.022451043366986</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4132484445292179</v>
+        <v>0.4132483552984663</v>
       </c>
       <c r="K208" t="n">
         <v>179025570</v>
@@ -8844,7 +8844,7 @@
         <v>0.01733227408717974</v>
       </c>
       <c r="J209" t="n">
-        <v>0.4377432539230788</v>
+        <v>0.4377431631457553</v>
       </c>
       <c r="K209" t="n">
         <v>172017475</v>
@@ -8885,7 +8885,7 @@
         <v>-0.001381396104178423</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4357571609933006</v>
+        <v>0.4357570703413767</v>
       </c>
       <c r="K210" t="n">
         <v>168226030</v>
@@ -8926,7 +8926,7 @@
         <v>0.01873198910628138</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4626517484922927</v>
+        <v>0.4626516561422778</v>
       </c>
       <c r="K211" t="n">
         <v>162065480</v>
@@ -8967,7 +8967,7 @@
         <v>-0.00701563995343113</v>
       </c>
       <c r="J212" t="n">
-        <v>0.4523903104476144</v>
+        <v>0.4523902187454938</v>
       </c>
       <c r="K212" t="n">
         <v>160040340</v>
@@ -9008,7 +9008,7 @@
         <v>0.0214234156125066</v>
       </c>
       <c r="J213" t="n">
-        <v>0.483505471699911</v>
+        <v>0.4835053780332179</v>
       </c>
       <c r="K213" t="n">
         <v>158098770</v>
@@ -9049,7 +9049,7 @@
         <v>-0.007809514778586935</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4719200137945558</v>
+        <v>0.4719199208593543</v>
       </c>
       <c r="K214" t="n">
         <v>160621835</v>
@@ -9090,7 +9090,7 @@
         <v>-0.02333164124835896</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4375777040864217</v>
+        <v>0.437577613319551</v>
       </c>
       <c r="K215" t="n">
         <v>163662480</v>
@@ -9131,7 +9131,7 @@
         <v>0.03615013766361175</v>
       </c>
       <c r="J216" t="n">
-        <v>0.4895463359912848</v>
+        <v>0.4895462419431793</v>
       </c>
       <c r="K216" t="n">
         <v>164064260</v>
@@ -9172,7 +9172,7 @@
         <v>-0.009666733498278846</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4751472885279193</v>
+        <v>0.4751471953889519</v>
       </c>
       <c r="K217" t="n">
         <v>164977990</v>
@@ -9213,7 +9213,7 @@
         <v>0.006507394244785081</v>
       </c>
       <c r="J218" t="n">
-        <v>0.4847466535034963</v>
+        <v>0.4847465597584368</v>
       </c>
       <c r="K218" t="n">
         <v>162654785</v>
@@ -9254,7 +9254,7 @@
         <v>0.007524277913753652</v>
       </c>
       <c r="J219" t="n">
-        <v>0.4959182999559724</v>
+        <v>0.4959182055055489</v>
       </c>
       <c r="K219" t="n">
         <v>161863500</v>
@@ -9295,7 +9295,7 @@
         <v>0.01067652067844116</v>
       </c>
       <c r="J220" t="n">
-        <v>0.5118895026187109</v>
+        <v>0.5118894071598854</v>
       </c>
       <c r="K220" t="n">
         <v>158351670</v>
@@ -9336,7 +9336,7 @@
         <v>-0.003503037563961864</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5065932968984779</v>
+        <v>0.5065932017740482</v>
       </c>
       <c r="K221" t="n">
         <v>158419040</v>
@@ -9377,7 +9377,7 @@
         <v>0.006042003347467295</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5156961386416103</v>
+        <v>0.5156960429424384</v>
       </c>
       <c r="K222" t="n">
         <v>154161955</v>
@@ -9418,7 +9418,7 @@
         <v>-0.008571763966649049</v>
       </c>
       <c r="J223" t="n">
-        <v>0.502703949096013</v>
+        <v>0.5027038542171518</v>
       </c>
       <c r="K223" t="n">
         <v>155213965</v>
@@ -9459,7 +9459,7 @@
         <v>0.002367981004387287</v>
       </c>
       <c r="J224" t="n">
-        <v>0.5062623235026902</v>
+        <v>0.5062622283991576</v>
       </c>
       <c r="K224" t="n">
         <v>153649610</v>
@@ -9500,7 +9500,7 @@
         <v>-0.008625449460479717</v>
       </c>
       <c r="J225" t="n">
-        <v>0.4932701339570931</v>
+        <v>0.4932700396738712</v>
       </c>
       <c r="K225" t="n">
         <v>154156900</v>
@@ -9541,7 +9541,7 @@
         <v>0.008645020880647225</v>
       </c>
       <c r="J226" t="n">
-        <v>0.506179485445599</v>
+        <v>0.5061793903472966</v>
       </c>
       <c r="K226" t="n">
         <v>154600995</v>
@@ -9582,7 +9582,7 @@
         <v>-0.03499801383923951</v>
       </c>
       <c r="J227" t="n">
-        <v>0.4534661949695953</v>
+        <v>0.4534661031995446</v>
       </c>
       <c r="K227" t="n">
         <v>154206740</v>
@@ -9623,7 +9623,7 @@
         <v>-0.001366452784833938</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4514801020398171</v>
+        <v>0.4514800103951659</v>
       </c>
       <c r="K228" t="n">
         <v>157259765</v>
@@ -9664,7 +9664,7 @@
         <v>-0.002394564432696811</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4480044394127054</v>
+        <v>0.4480043479875033</v>
       </c>
       <c r="K229" t="n">
         <v>157812580</v>
@@ -9705,7 +9705,7 @@
         <v>0.01720203348053451</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4729130602594454</v>
+        <v>0.472912967261544</v>
       </c>
       <c r="K230" t="n">
         <v>160336210</v>
@@ -9746,7 +9746,7 @@
         <v>0.01022531109357394</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4879740545143862</v>
+        <v>0.4879739605655524</v>
       </c>
       <c r="K231" t="n">
         <v>161485675</v>
@@ -9787,7 +9787,7 @@
         <v>0.01090036767089608</v>
       </c>
       <c r="J232" t="n">
-        <v>0.5041935187933471</v>
+        <v>0.5041934238204364</v>
       </c>
       <c r="K232" t="n">
         <v>162216210</v>
@@ -9828,7 +9828,7 @@
         <v>-0.0009352065559826706</v>
       </c>
       <c r="J233" t="n">
-        <v>0.5027867871531049</v>
+        <v>0.5027866922690136</v>
       </c>
       <c r="K233" t="n">
         <v>165276545</v>
@@ -9869,7 +9869,7 @@
         <v>-0.007874516613228466</v>
       </c>
       <c r="J234" t="n">
-        <v>0.4909530676315275</v>
+        <v>0.4909529734946025</v>
       </c>
       <c r="K234" t="n">
         <v>168281665</v>
@@ -9910,7 +9910,7 @@
         <v>-0.03324642128304889</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4413842138317956</v>
+        <v>0.4413841228245865</v>
       </c>
       <c r="K235" t="n">
         <v>170218110</v>
@@ -9951,7 +9951,7 @@
         <v>-0.01951996492856056</v>
       </c>
       <c r="J236" t="n">
-        <v>0.4132484445292182</v>
+        <v>0.4132483552984665</v>
       </c>
       <c r="K236" t="n">
         <v>174367625</v>
@@ -9992,7 +9992,7 @@
         <v>-0.0009368627758283843</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4119244246685414</v>
+        <v>0.4119243355213866</v>
       </c>
       <c r="K237" t="n">
         <v>174768490</v>
@@ -10033,7 +10033,7 @@
         <v>0.006095452674606427</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4205307431792293</v>
+        <v>0.4205306534886823</v>
       </c>
       <c r="K238" t="n">
         <v>174992380</v>
@@ -10074,7 +10074,7 @@
         <v>-0.02703018398695167</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3821335358319735</v>
+        <v>0.3821334485657786</v>
       </c>
       <c r="K239" t="n">
         <v>178620530</v>
@@ -10115,7 +10115,7 @@
         <v>0.007723564088240931</v>
       </c>
       <c r="J240" t="n">
-        <v>0.3928085327744788</v>
+        <v>0.3928084448342779</v>
       </c>
       <c r="K240" t="n">
         <v>180639150</v>
@@ -10156,7 +10156,7 @@
         <v>0.0145564601601742</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4130828946925611</v>
+        <v>0.4130828054722622</v>
       </c>
       <c r="K241" t="n">
         <v>181600410</v>
@@ -10197,7 +10197,7 @@
         <v>0.03847512165898026</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4674514309800815</v>
+        <v>0.4674513383270207</v>
       </c>
       <c r="K242" t="n">
         <v>185668725</v>
@@ -10238,7 +10238,7 @@
         <v>-0.0008459798617036496</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4662099966214441</v>
+        <v>0.466209904046766</v>
       </c>
       <c r="K243" t="n">
         <v>184233105</v>
@@ -10279,7 +10279,7 @@
         <v>0.003668844397986648</v>
       </c>
       <c r="J244" t="n">
-        <v>0.4715892929538208</v>
+        <v>0.4715892000395006</v>
       </c>
       <c r="K244" t="n">
         <v>184000955</v>
@@ -10320,7 +10320,7 @@
         <v>-0.0003936976793117442</v>
       </c>
       <c r="J245" t="n">
-        <v>0.4710099316642848</v>
+        <v>0.4710098387865447</v>
       </c>
       <c r="K245" t="n">
         <v>183523925</v>
@@ -10361,7 +10361,7 @@
         <v>-0.01614624538502107</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4472586443438302</v>
+        <v>0.4472585529657169</v>
       </c>
       <c r="K246" t="n">
         <v>183960415</v>
@@ -10402,7 +10402,7 @@
         <v>-0.02624663465531962</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4092729754539846</v>
+        <v>0.4092728864742392</v>
       </c>
       <c r="K247" t="n">
         <v>185291145</v>
@@ -10443,7 +10443,7 @@
         <v>0.03494046885675561</v>
       </c>
       <c r="J248" t="n">
-        <v>0.4585136339635019</v>
+        <v>0.4585135418747623</v>
       </c>
       <c r="K248" t="n">
         <v>184122175</v>
@@ -10484,7 +10484,7 @@
         <v>0.002439813109276878</v>
       </c>
       <c r="J249" t="n">
-        <v>0.462072134647705</v>
+        <v>0.4620720423342863</v>
       </c>
       <c r="K249" t="n">
         <v>188979235</v>
@@ -10525,7 +10525,7 @@
         <v>0.03928229191902566</v>
       </c>
       <c r="J250" t="n">
-        <v>0.5195056790476091</v>
+        <v>0.5195055831079078</v>
       </c>
       <c r="K250" t="n">
         <v>193821615</v>
@@ -10542,7 +10542,7 @@
         <v>45923</v>
       </c>
       <c r="B251" t="n">
-        <v>181.9400024414062</v>
+        <v>181.9700012207031</v>
       </c>
       <c r="C251" t="n">
         <v>182.4199981689453</v>
@@ -10554,7 +10554,7 @@
         <v>178.4299926757812</v>
       </c>
       <c r="F251" t="n">
-        <v>187495138</v>
+        <v>191976900</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -10566,10 +10566,10 @@
         <v>-0.02821201414602181</v>
       </c>
       <c r="J251" t="n">
-        <v>0.4766373633353576</v>
+        <v>0.4766372701023085</v>
       </c>
       <c r="K251" t="n">
-        <v>195045731.9</v>
+        <v>195269820</v>
       </c>
       <c r="L251" t="n">
         <v>175.3476036071777</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187495138</v>
+        <v>191976900</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
